--- a/Sprint-1_bd/HROADS/Modelo Fisíco - HROADS.xlsx
+++ b/Sprint-1_bd/HROADS/Modelo Fisíco - HROADS.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A995D914-81F3-46B7-9239-76046EE680B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8a9320310dbb1e3c/Área de Trabalho/Pastas Senai/Senai_2º_Semestre/Sprint-1_bd/HROADS/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{A995D914-81F3-46B7-9239-76046EE680B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5437E90-2564-4958-B2D3-2226698F03E0}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -131,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,61 +292,61 @@
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -362,7 +367,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -661,315 +666,315 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
     <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="17"/>
+      <c r="D1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>2</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>3</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>3</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="F8" s="11" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="9" t="s">
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+    </row>
+    <row r="9" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="12" t="s">
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="10">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>1</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="9">
         <v>1</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="9">
         <v>6</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="14">
         <v>150</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="13">
+      <c r="J10" s="15"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="9">
         <v>50</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="10">
         <v>44256</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="10">
         <v>44256</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="10">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>2</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="9">
         <v>2</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="9">
         <v>1</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="14">
         <v>100</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="13">
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="9">
         <v>50</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="10">
         <v>44256</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="10">
         <v>44256</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="10">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>3</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7">
         <v>3</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="9">
         <v>3</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="9">
         <v>2</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="14">
         <v>250</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="13">
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="9">
         <v>100</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="10">
         <v>44256</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="10">
         <v>44256</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="10">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>4</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="10">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>5</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="10">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>6</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="10">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>7</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
         <v>32</v>
       </c>
     </row>
